--- a/requirements/PS.xlsx
+++ b/requirements/PS.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sfaily/webinos/webinos-design-data/requirements/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36360" windowHeight="18860" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="In scope" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Out of scope" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="In scope" sheetId="1" r:id="rId1"/>
+    <sheet name="Out of scope" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -153,7 +165,7 @@
     <t>Elicited during WP 2 workshop</t>
   </si>
   <si>
-    <t>Application data is currently stored in at least 3 way: widget storage, widget preference file access. In the current security model it is  possible to place fine grained restrictions on file access. Placing similar controls on storage and preferences is a phase 2 activity </t>
+    <t>Application data is currently stored in at least 3 way: widget storage, widget preference file access. In the current security model it is  possible to place fine grained restrictions on file access. Placing similar controls on storage and preferences is a phase 2 activity</t>
   </si>
   <si>
     <t>p</t>
@@ -183,7 +195,7 @@
     <t>Based on PS-USR-Oxford-62</t>
   </si>
   <si>
-    <t>Within the current implementation this issue is prevalent at two layers  - in the  browser and the node pzp context . For the PZP this is supported through the application separation provided through node application management and further through the use of isolets. For the browser, we inherit the browser implementation , which for the webinos WRT is Chromium. Note webinos applications do not have Operating System executable separation, this is too expensive from a footprint perspective </t>
+    <t>Within the current implementation this issue is prevalent at two layers  - in the  browser and the node pzp context . For the PZP this is supported through the application separation provided through node application management and further through the use of isolets. For the browser, we inherit the browser implementation , which for the webinos WRT is Chromium. Note webinos applications do not have Operating System executable separation, this is too expensive from a footprint perspective</t>
   </si>
   <si>
     <t>Application policy approval</t>
@@ -204,7 +216,7 @@
     <t>Based on PS-DEV-Oxford-77</t>
   </si>
   <si>
-    <t>These features are supported by the webinos policy mechanisms </t>
+    <t>These features are supported by the webinos policy mechanisms</t>
   </si>
   <si>
     <t>Authentication alert</t>
@@ -216,7 +228,7 @@
     <t>Based on PS-USR-Oxford-16</t>
   </si>
   <si>
-    <t>This requirement is implemented via a default policy being in place. The current expressiveness of the policy is capable of capturing this requirement  </t>
+    <t>This requirement is implemented via a default policy being in place. The current expressiveness of the policy is capable of capturing this requirement</t>
   </si>
   <si>
     <t>Authenticity check</t>
@@ -321,13 +333,13 @@
     <t>Based on PS-DEV-Oxford-87</t>
   </si>
   <si>
-    <t>This constraint is satisfied by the implementation of the secure storage capability </t>
+    <t>This constraint is satisfied by the implementation of the secure storage capability</t>
   </si>
   <si>
     <t>CRL signing</t>
   </si>
   <si>
-    <t>webinos components shall be responsible for signing any certificate revocation lists they store. </t>
+    <t>webinos components shall be responsible for signing any certificate revocation lists they store.</t>
   </si>
   <si>
     <t>??</t>
@@ -351,7 +363,7 @@
     <t>Based on PS-USR-Oxford-121</t>
   </si>
   <si>
-    <t>This process is part of the device enrolment process specified and implemented in webinos </t>
+    <t>This process is part of the device enrolment process specified and implemented in webinos</t>
   </si>
   <si>
     <t>Default policy</t>
@@ -378,7 +390,7 @@
     <t>Missing requirement based on backlog</t>
   </si>
   <si>
-    <t>This is part of the device enrolment process. A certificate which is unique to the zone (and therefore the owners identity) is issued to each devices. </t>
+    <t>This is part of the device enrolment process. A certificate which is unique to the zone (and therefore the owners identity) is issued to each devices.</t>
   </si>
   <si>
     <t>Out-of-band revocation</t>
@@ -387,7 +399,7 @@
     <t>webinos shall allow out-of-band authentication when revoking certificates associated with webinos components.</t>
   </si>
   <si>
-    <t>Each PZH provides a web administration interface </t>
+    <t>Each PZH provides a web administration interface</t>
   </si>
   <si>
     <t>Device-identity binding revokation</t>
@@ -492,7 +504,7 @@
     <t>Based on PS-DEV-Oxford-78</t>
   </si>
   <si>
-    <t>This is not currently supported. This may not be possible </t>
+    <t>This is not currently supported. This may not be possible</t>
   </si>
   <si>
     <t>d</t>
@@ -522,7 +534,7 @@
     <t>Based on PS-USR-Oxford-49</t>
   </si>
   <si>
-    <t>Policy management </t>
+    <t>Policy management</t>
   </si>
   <si>
     <t>Policy override refusal</t>
@@ -717,7 +729,7 @@
     <t>Based on PS-USR-Oxford-74</t>
   </si>
   <si>
-    <t>The functionality is build into the core. </t>
+    <t>The functionality is build into the core.</t>
   </si>
   <si>
     <t>Trusted application source</t>
@@ -732,7 +744,7 @@
     <t>Based on PS-USR-Oxford-106</t>
   </si>
   <si>
-    <t>The current install process, will perform certificate integrity checks on the presented application, and also present a dialog to the user presenting these credentials along with the features requested by the user. It is up to the user to accept these credentials. Moving forward in phase 2 we will look to integrate 3rd party application review services </t>
+    <t>The current install process, will perform certificate integrity checks on the presented application, and also present a dialog to the user presenting these credentials along with the features requested by the user. It is up to the user to accept these credentials. Moving forward in phase 2 we will look to integrate 3rd party application review services</t>
   </si>
   <si>
     <t>User anonymisation</t>
@@ -996,32 +1008,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1033,81 +1027,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00C0C0C0"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1166,2683 +1170,2940 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="F52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100">
-      <selection activeCell="N42" activeCellId="0" pane="topLeft" sqref="N42"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.1411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="58.9098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.3960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.0156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.878431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.8941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.643137254902"/>
+    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="10.83203125" style="9"/>
+    <col min="3" max="3" width="10.83203125" style="13"/>
+    <col min="4" max="4" width="10.83203125" style="9"/>
+    <col min="5" max="9" width="10.83203125" style="12"/>
+    <col min="10" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="H2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:15" ht="272" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="H3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="O3" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="K4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="10">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:15" ht="384" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="H5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="6">
-      <c r="A6" s="5" t="s">
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" ht="409" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
+      <c r="H6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="7">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="K7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="O7" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="214.15" outlineLevel="0" r="8">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:15" ht="409" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="H8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="O8" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="9">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="s">
+      <c r="H9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="5" t="n">
+      <c r="O9" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="10">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
+      <c r="H10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="5" t="n">
+      <c r="O10" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="11">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:15" ht="272" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
+      <c r="H11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="O11" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="12">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:15" ht="256" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="H12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5" t="s">
+      <c r="K12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="13">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5" t="s">
+      <c r="H13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="5" t="n">
+      <c r="O13" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="14">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
+      <c r="H14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="O14" s="5" t="n">
+      <c r="O14" s="10">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="15">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:15" ht="240" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="H15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
+      <c r="K15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="O15" s="5" t="n">
+      <c r="O15" s="10">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="16">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
+      <c r="H16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="17">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:15" ht="336" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="H17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="18">
-      <c r="A18" s="5" t="s">
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5" t="s">
+      <c r="H18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="O18" s="5" t="n">
+      <c r="O18" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="19">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5" t="s">
+      <c r="H19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="20">
-      <c r="A20" s="5" t="s">
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="H20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
+      <c r="K20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="21">
-      <c r="A21" s="5" t="s">
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="H21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
+      <c r="K21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="O21" s="5" t="n">
+      <c r="O21" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="22">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5" t="s">
+      <c r="H22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="O22" s="5" t="n">
+      <c r="O22" s="10">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="23">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:15" ht="256" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
+      <c r="H23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="O23" s="5" t="n">
+      <c r="O23" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="24">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5" t="s">
+      <c r="H24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="O24" s="5" t="n">
+      <c r="O24" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5" t="s">
+      <c r="H25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="O25" s="5" t="n">
+      <c r="O25" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="26">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5" t="s">
+      <c r="H26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O26" s="5" t="n">
+      <c r="O26" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="27">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:15" ht="336" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="B27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5" t="s">
+      <c r="H27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="O27" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="28">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5" t="s">
+      <c r="H28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="5" t="n">
+      <c r="O28" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="29">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:15" ht="272" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5" t="s">
+      <c r="H29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="O29" s="5" t="n">
+      <c r="O29" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="30">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5" t="s">
+      <c r="H30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="31">
-      <c r="A31" s="5" t="s">
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="F31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5" t="s">
+      <c r="H31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="O31" s="5" t="n">
+      <c r="O31" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="32">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="B32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="F32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5" t="s">
+      <c r="H32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="O32" s="5" t="n">
+      <c r="O32" s="10">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="33">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:15" ht="240" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="B33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5" t="s">
+      <c r="H33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="34">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:15" ht="320" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5" t="s">
+      <c r="H34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="35">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="B35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5" t="s">
+      <c r="H35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="36">
-      <c r="A36" s="5" t="s">
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" ht="224" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="B36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5" t="s">
+      <c r="H36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="O36" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="37">
-      <c r="A37" s="5" t="s">
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5" t="s">
+      <c r="H37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="O37" s="5" t="n">
+      <c r="O37" s="10">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="38">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="F38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5" t="s">
+      <c r="H38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="O38" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="39">
-      <c r="A39" s="5" t="s">
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" ht="272" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="F39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5" t="s">
+      <c r="H39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="O39" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="40">
-      <c r="A40" s="5" t="s">
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5" t="s">
+      <c r="H40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="84.55" outlineLevel="0" r="41">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:15" ht="288" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="F41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5" t="s">
+      <c r="H41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="O41" s="5" t="n">
+      <c r="O41" s="10">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="42">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:15" ht="144" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5" t="s">
+      <c r="H42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="43">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:15" ht="368" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="B43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="F43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5" t="s">
+      <c r="H43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="O43" s="5" t="n">
+      <c r="O43" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="44">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:15" ht="176" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="B44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="5" t="s">
+      <c r="F44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5" t="s">
+      <c r="H44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="O44" s="5" t="n">
+      <c r="O44" s="10">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="45">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="F45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="5" t="s">
+      <c r="H45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5" t="s">
+      <c r="K45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O45" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="46">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:15" ht="352" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="B46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="F46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5" t="s">
+      <c r="H46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="143.25" outlineLevel="0" r="47">
-      <c r="A47" s="5" t="s">
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" ht="409" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="C47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="F47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5" t="s">
+      <c r="H47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="48">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="C48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="F48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5" t="s">
+      <c r="H48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="O48" s="5" t="n">
+      <c r="O48" s="10">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="49">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:15" ht="208" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="B49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="F49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5" t="s">
+      <c r="H49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="O49" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="100.7" outlineLevel="0" r="50">
-      <c r="A50" s="5" t="s">
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" ht="320" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="B50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="F50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="H50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5" t="s">
+      <c r="H50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="51">
-      <c r="A51" s="5" t="s">
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="5" t="s">
+      <c r="F51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5" t="s">
+      <c r="H51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="O51" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="157.45" outlineLevel="0" r="52">
-      <c r="A52" s="5" t="s">
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" ht="409" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="B52" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5" t="s">
+      <c r="H52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="53">
-      <c r="A53" s="5" t="s">
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" ht="160" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="B53" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="5" t="s">
+      <c r="F53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H53" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5" t="s">
+      <c r="H53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="O53" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="72.35" outlineLevel="0" r="54">
-      <c r="A54" s="5" t="s">
+      <c r="O53" s="10"/>
+    </row>
+    <row r="54" spans="1:15" ht="256" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="B54" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="5" t="s">
+      <c r="F54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5" t="s">
+      <c r="H54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="O54" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="55">
-      <c r="A55" s="5" t="s">
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="B55" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="F55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="H55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5" t="s">
+      <c r="H55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="O55" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="56">
-      <c r="A56" s="5" t="s">
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="B56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="H56" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5" t="s">
+      <c r="H56" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="O56" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="57">
-      <c r="A57" s="5" t="s">
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:15" ht="288" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="5" t="s">
+      <c r="F57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="H57" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5" t="s">
+      <c r="H57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="O57" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="86.55" outlineLevel="0" r="58">
-      <c r="A58" s="5" t="s">
+      <c r="O57" s="10"/>
+    </row>
+    <row r="58" spans="1:15" ht="288" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="B58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="F58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H58" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5" t="s">
+      <c r="H58" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="O58" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="114.9" outlineLevel="0" r="59">
-      <c r="A59" s="5" t="s">
+      <c r="O58" s="10"/>
+    </row>
+    <row r="59" spans="1:15" ht="409" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="C59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="5" t="s">
+      <c r="F59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H59" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5" t="s">
+      <c r="H59" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="O59" s="5"/>
+      <c r="O59" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="30.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.38039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.1411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="58.9098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.3960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.878431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.8941176470588"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="5" max="9" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="1">
+    <row r="1" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3871,7 +4132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="2">
+    <row r="2" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>267</v>
       </c>
@@ -3900,7 +4161,7 @@
         <v>271</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="3">
+    <row r="3" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>272</v>
       </c>
@@ -3929,7 +4190,7 @@
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="4">
+    <row r="4" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>276</v>
       </c>
@@ -3958,7 +4219,7 @@
         <v>279</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="58.2" outlineLevel="0" r="5">
+    <row r="5" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>280</v>
       </c>
@@ -3987,7 +4248,7 @@
         <v>283</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="6">
+    <row r="6" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>284</v>
       </c>
@@ -4016,7 +4277,7 @@
         <v>287</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="7">
+    <row r="7" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>288</v>
       </c>
@@ -4045,7 +4306,7 @@
         <v>291</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="8">
+    <row r="8" spans="1:9" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>292</v>
       </c>
@@ -4074,7 +4335,7 @@
         <v>295</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="9">
+    <row r="9" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>296</v>
       </c>
@@ -4103,7 +4364,7 @@
         <v>295</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="10">
+    <row r="10" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>300</v>
       </c>
@@ -4132,7 +4393,7 @@
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="11">
+    <row r="11" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>305</v>
       </c>
@@ -4161,7 +4422,7 @@
         <v>308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="12">
+    <row r="12" spans="1:9" ht="352" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>309</v>
       </c>
@@ -4190,7 +4451,7 @@
         <v>312</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="13">
+    <row r="13" spans="1:9" ht="224" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>313</v>
       </c>
@@ -4219,7 +4480,7 @@
         <v>316</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="14">
+    <row r="14" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>317</v>
       </c>
@@ -4248,7 +4509,7 @@
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="29.85" outlineLevel="0" r="15">
+    <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>321</v>
       </c>
@@ -4278,12 +4539,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>